--- a/finalData.xlsx
+++ b/finalData.xlsx
@@ -5336,7 +5336,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t xml:space="preserve">NFC III </t>
+          <t>NFC III</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>NFC III  NFC IV</t>
+          <t>NFC IV</t>
         </is>
       </c>
     </row>
@@ -15686,7 +15686,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t xml:space="preserve">NFC III </t>
+          <t>NFC III</t>
         </is>
       </c>
     </row>
@@ -15755,7 +15755,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>NFC III  NFC IV</t>
+          <t>NFC IV</t>
         </is>
       </c>
     </row>
@@ -25070,7 +25070,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t xml:space="preserve">NFC III </t>
+          <t>NFC III</t>
         </is>
       </c>
     </row>
@@ -25139,7 +25139,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>NFC III  NFC IV</t>
+          <t>NFC IV</t>
         </is>
       </c>
     </row>
@@ -26450,7 +26450,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t xml:space="preserve">NFC III </t>
+          <t>NFC III</t>
         </is>
       </c>
     </row>
@@ -26519,7 +26519,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>NFC III  NFC IV</t>
+          <t>NFC IV</t>
         </is>
       </c>
     </row>
@@ -34799,7 +34799,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t xml:space="preserve">NFC III </t>
+          <t>NFC III</t>
         </is>
       </c>
     </row>
@@ -34868,7 +34868,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>NFC III  NFC IV</t>
+          <t>NFC IV</t>
         </is>
       </c>
     </row>
@@ -35972,7 +35972,7 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t xml:space="preserve">NFC III </t>
+          <t>NFC III</t>
         </is>
       </c>
     </row>
@@ -36041,7 +36041,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>NFC III  NFC IV</t>
+          <t>NFC IV</t>
         </is>
       </c>
     </row>

--- a/finalData.xlsx
+++ b/finalData.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O639"/>
+  <dimension ref="A1:O641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45031,56 +45031,56 @@
     </row>
     <row r="630">
       <c r="A630" s="2">
-        <v>44865</v>
+        <v>44884</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>02.00 - 04.00 pm</t>
+          <t>10.00 - 12.00 noon</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>2.00 PM</t>
+          <t>10.00 AM</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>4.00 PM</t>
+          <t>12.00 PM</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="G630" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>ENG</t>
         </is>
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Chemistry</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Fourth Year</t>
+          <t>First Year</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>CHE 499 2.0</t>
+          <t>ENG 101 2.0</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Advanced Physical Organic Chemistry</t>
+          <t>Compulsory English (Scientific Communication)</t>
         </is>
       </c>
       <c r="L630">
@@ -45092,11 +45092,11 @@
         </is>
       </c>
       <c r="N630">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>NFC - Exam Hall 1</t>
         </is>
       </c>
     </row>
@@ -45106,27 +45106,27 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>02.00 - 04.00 pm</t>
+          <t>10.00 - 12.00 noon</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>2.00 PM</t>
+          <t>10.00 AM</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>4.00 PM</t>
+          <t>12.00 PM</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="G631" t="inlineStr">
@@ -45141,17 +45141,17 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Third Year</t>
+          <t>First Year</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>ENG 301 2.0</t>
+          <t>ENG 101 2.0</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Professional English</t>
+          <t>Compulsory English (Scientific Communication)</t>
         </is>
       </c>
       <c r="L631">
@@ -45159,7 +45159,7 @@
       </c>
       <c r="M631" t="inlineStr">
         <is>
-          <t>General Degree</t>
+          <t>Special Degree</t>
         </is>
       </c>
       <c r="N631">
@@ -45167,13 +45167,13 @@
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>NFC - Exam Hall 1</t>
+          <t>NFC - Exam Hall 2</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2">
-        <v>44884</v>
+        <v>44865</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -45202,27 +45202,27 @@
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>ENG</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Chemistry</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Third Year</t>
+          <t>Fourth Year</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>ENG 301 2.0</t>
+          <t>CHE 499 2.0</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Professional English</t>
+          <t>Advanced Physical Organic Chemistry</t>
         </is>
       </c>
       <c r="L632">
@@ -45234,66 +45234,66 @@
         </is>
       </c>
       <c r="N632">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>NFC - Exam Hall 1</t>
+          <t>C1</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2">
-        <v>44885</v>
+        <v>44884</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>09.00 - 11.00 am</t>
+          <t>02.00 - 04.00 pm</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>9.00 AM</t>
+          <t>2.00 PM</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>11.00 AM</t>
+          <t>4.00 PM</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G633" t="inlineStr">
         <is>
-          <t>STA</t>
+          <t>ENG</t>
         </is>
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>ASP/ASB/ASC</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Fourth Year</t>
+          <t>Third Year</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>ASP 454 2.0</t>
+          <t>ENG 301 2.0</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Programming and Data Analysis with R</t>
+          <t>Professional English</t>
         </is>
       </c>
       <c r="L633">
@@ -45301,7 +45301,7 @@
       </c>
       <c r="M633" t="inlineStr">
         <is>
-          <t>Extended Degree</t>
+          <t>General Degree</t>
         </is>
       </c>
       <c r="N633">
@@ -45309,47 +45309,47 @@
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>NFC IV</t>
+          <t>NFC - Exam Hall 1</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2">
-        <v>44885</v>
+        <v>44884</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>09.00 - 11.00 am</t>
+          <t>02.00 - 04.00 pm</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>9.00 AM</t>
+          <t>2.00 PM</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>11.00 AM</t>
+          <t>4.00 PM</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>STA</t>
+          <t>ENG</t>
         </is>
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>English</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -45359,12 +45359,12 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>STA 326 2.0</t>
+          <t>ENG 301 2.0</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Programming and Data Analysis with R</t>
+          <t>Professional English</t>
         </is>
       </c>
       <c r="L634">
@@ -45372,7 +45372,7 @@
       </c>
       <c r="M634" t="inlineStr">
         <is>
-          <t>General Degree</t>
+          <t>Special Degree</t>
         </is>
       </c>
       <c r="N634">
@@ -45380,7 +45380,7 @@
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>NFC IV</t>
+          <t>NFC - Exam Hall 1</t>
         </is>
       </c>
     </row>
@@ -45420,17 +45420,17 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>ASP/ASB/ASC</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Third Year</t>
+          <t>Fourth Year</t>
         </is>
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>STA 326 2.0</t>
+          <t>ASP 454 2.0</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -45443,11 +45443,11 @@
       </c>
       <c r="M635" t="inlineStr">
         <is>
-          <t>Special Degree</t>
+          <t>Extended Degree</t>
         </is>
       </c>
       <c r="N635">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O635" t="inlineStr">
         <is>
@@ -45457,56 +45457,56 @@
     </row>
     <row r="636">
       <c r="A636" s="2">
-        <v>44873</v>
+        <v>44885</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>10.00 - 12.00 noon</t>
+          <t>09.00 - 11.00 am</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>10.00 AM</t>
+          <t>9.00 AM</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>12.00 PM</t>
+          <t>11.00 AM</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>EMF</t>
+          <t>STA</t>
         </is>
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Environmental Management and Forestry</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Fourth Year</t>
+          <t>Third Year</t>
         </is>
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>EMF 480 2.0</t>
+          <t>STA 326 2.0</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Environmental Modelling</t>
+          <t>Programming and Data Analysis with R</t>
         </is>
       </c>
       <c r="L636">
@@ -45514,126 +45514,126 @@
       </c>
       <c r="M636" t="inlineStr">
         <is>
-          <t>Special Degree</t>
+          <t>General Degree</t>
         </is>
       </c>
       <c r="N636">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Forestry L/T 2</t>
+          <t>NFC IV</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="2">
-        <v>44879</v>
+        <v>44885</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>12.00 - 03.00 pm</t>
+          <t>09.00 - 11.00 am</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>12.00 PM</t>
+          <t>9.00 AM</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>3.00 PM</t>
+          <t>11.00 AM</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>STA</t>
         </is>
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>ASP/ASB/ASC</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Fourth Year</t>
+          <t>Third Year</t>
         </is>
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>ASP 414 3.0</t>
+          <t>STA 326 2.0</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Application of CAD Drawing in Polymer Industry</t>
+          <t>Programming and Data Analysis with R</t>
         </is>
       </c>
       <c r="L637">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M637" t="inlineStr">
         <is>
-          <t>Extended Degree</t>
+          <t>Special Degree</t>
         </is>
       </c>
       <c r="N637">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Computer Centre</t>
+          <t>NFC IV</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2">
-        <v>44862</v>
+        <v>44873</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>09.00 - 10.00 am</t>
+          <t>10.00 - 12.00 noon</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>9.00 AM</t>
+          <t>10.00 AM</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>10.00 AM</t>
+          <t>12.00 PM</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>EMF</t>
         </is>
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Polymer Chemistry Honors</t>
+          <t>Environmental Management and Forestry</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -45643,97 +45643,239 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>PCH 463 1.0</t>
+          <t>EMF 480 2.0</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Fabric Preparation and Finishing</t>
+          <t>Environmental Modelling</t>
         </is>
       </c>
       <c r="L638">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M638" t="inlineStr">
         <is>
-          <t>Extended Degree</t>
+          <t>Special Degree</t>
         </is>
       </c>
       <c r="N638">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>Forestry L/T 2</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="2">
-        <v>44885</v>
+        <v>44879</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>01.00 - 02.00 pm</t>
+          <t>12.00 - 03.00 pm</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>1.00 PM</t>
+          <t>12.00 PM</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>2.00 PM</t>
+          <t>3.00 PM</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>PST</t>
         </is>
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Management Science</t>
+          <t>ASP/ASB/ASC</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Third Year</t>
+          <t>Fourth Year</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>MAN 303 1.0</t>
+          <t>ASP 414 3.0</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>MIS and Accounting Information System for Managers</t>
+          <t>Application of CAD Drawing in Polymer Industry</t>
         </is>
       </c>
       <c r="L639">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M639" t="inlineStr">
         <is>
-          <t>General Degree</t>
+          <t>Extended Degree</t>
         </is>
       </c>
       <c r="N639">
         <v>0</v>
       </c>
       <c r="O639" t="inlineStr">
+        <is>
+          <t>Computer Centre</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2">
+        <v>44862</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>09.00 - 10.00 am</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>9.00 AM</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>10.00 AM</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>PCH</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>Polymer Chemistry Honors</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>Fourth Year</t>
+        </is>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>PCH 463 1.0</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>Fabric Preparation and Finishing</t>
+        </is>
+      </c>
+      <c r="L640">
+        <v>1</v>
+      </c>
+      <c r="M640" t="inlineStr">
+        <is>
+          <t>Extended Degree</t>
+        </is>
+      </c>
+      <c r="N640">
+        <v>0</v>
+      </c>
+      <c r="O640" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2">
+        <v>44885</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>01.00 - 02.00 pm</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>1.00 PM</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>2.00 PM</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>MAN</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>Management Science</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>Third Year</t>
+        </is>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>MAN 303 1.0</t>
+        </is>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>MIS and Accounting Information System for Managers</t>
+        </is>
+      </c>
+      <c r="L641">
+        <v>1</v>
+      </c>
+      <c r="M641" t="inlineStr">
+        <is>
+          <t>General Degree</t>
+        </is>
+      </c>
+      <c r="N641">
+        <v>0</v>
+      </c>
+      <c r="O641" t="inlineStr">
         <is>
           <t>Maths Computer Lab</t>
         </is>

--- a/finalData.xlsx
+++ b/finalData.xlsx
@@ -2886,12 +2886,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>ASC</t>
+          <t>ASP</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Applied Sciences Common</t>
+          <t>Applied Sciences Physical</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -14317,12 +14317,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>ASC</t>
+          <t>ASP`</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Applied Sciences Common</t>
+          <t>Applied Sciences Physical</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -24683,12 +24683,12 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>ASC</t>
+          <t>ASB</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Applied Sciences Common</t>
+          <t>Applied Sciences Biology</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -33416,12 +33416,12 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>ASP</t>
+          <t>ASC</t>
         </is>
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Applied Sciences Physical</t>
+          <t>Applied Sciences Common</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -40587,12 +40587,12 @@
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>ASP</t>
+          <t>ASC</t>
         </is>
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Applied Sciences Physical</t>
+          <t>Applied Sciences Common</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -43498,12 +43498,12 @@
       </c>
       <c r="G608" t="inlineStr">
         <is>
-          <t>ASP</t>
+          <t>ASC</t>
         </is>
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Applied Sciences Physical</t>
+          <t>Applied Sciences Common</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">

--- a/finalData.xlsx
+++ b/finalData.xlsx
@@ -14317,7 +14317,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>ASP`</t>
+          <t>ASP</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
